--- a/tests/fixtures/DEMOFIN_TABELA.xlsx
+++ b/tests/fixtures/DEMOFIN_TABELA.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\jupiter1\sepag\FOLHAS\FOLHA2025\10.OUTUBRO\Normal\Relatorios da Folha\"/>
@@ -15,7 +15,23 @@
   <sheets>
     <sheet name="DEMOFIN - T" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -977,7 +993,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -1377,24 +1393,24 @@
   <dimension ref="A1:J373"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1424,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1472,7 +1488,7 @@
         <v>-4118.66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1504,7 +1520,7 @@
         <v>-6690.11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>-3603.46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1568,7 +1584,7 @@
         <v>-624</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1600,7 +1616,7 @@
         <v>-4101.54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1632,7 +1648,7 @@
         <v>-963</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1664,7 +1680,7 @@
         <v>-2210</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1696,7 +1712,7 @@
         <v>-4081.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1728,7 +1744,7 @@
         <v>-558662.68000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1760,7 +1776,7 @@
         <v>-287.75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1792,7 +1808,7 @@
         <v>-31.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1824,7 +1840,7 @@
         <v>-5471.73</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1856,7 +1872,7 @@
         <v>-2550.1999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1888,7 +1904,7 @@
         <v>-20621.78</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1920,7 +1936,7 @@
         <v>-118412.09</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1952,7 +1968,7 @@
         <v>-12994</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1984,7 +2000,7 @@
         <v>-837.23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2016,7 +2032,7 @@
         <v>-1674.46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2048,7 +2064,7 @@
         <v>-465876.84</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2080,7 +2096,7 @@
         <v>-269.44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2112,7 +2128,7 @@
         <v>-161770.91</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2144,7 +2160,7 @@
         <v>-462.27</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2176,7 +2192,7 @@
         <v>-2345.41</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2208,7 +2224,7 @@
         <v>10461.280000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2240,7 +2256,7 @@
         <v>6213.1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2272,7 +2288,7 @@
         <v>91.79</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -2304,7 +2320,7 @@
         <v>-3099.17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2336,7 +2352,7 @@
         <v>-33272.53</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -2368,7 +2384,7 @@
         <v>9000.49</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -2400,7 +2416,7 @@
         <v>4068.09</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2432,7 +2448,7 @@
         <v>1693.86</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>4661.96</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2496,7 +2512,7 @@
         <v>-3884.97</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>33409.96</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2560,7 +2576,7 @@
         <v>25057.48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -2592,7 +2608,7 @@
         <v>567667.71</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2624,7 +2640,7 @@
         <v>11363.38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -2656,7 +2672,7 @@
         <v>11363.38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -2688,7 +2704,7 @@
         <v>1718850.43</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -2720,7 +2736,7 @@
         <v>7487.74</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -2752,7 +2768,7 @@
         <v>5295.01</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -2784,7 +2800,7 @@
         <v>15312.99</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -2816,7 +2832,7 @@
         <v>23783.33</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -2848,7 +2864,7 @@
         <v>6215.94</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -2880,7 +2896,7 @@
         <v>560045.9</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -2912,7 +2928,7 @@
         <v>12725.62</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -2944,7 +2960,7 @@
         <v>27303.15</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -2976,7 +2992,7 @@
         <v>1213.47</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -3008,7 +3024,7 @@
         <v>-4325.78</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -3040,7 +3056,7 @@
         <v>348747.66</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3072,7 +3088,7 @@
         <v>8714.0400000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -3104,7 +3120,7 @@
         <v>-1390.54</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3136,7 +3152,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -3168,7 +3184,7 @@
         <v>-121.6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -3200,7 +3216,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -3232,7 +3248,7 @@
         <v>4506.67</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -3264,7 +3280,7 @@
         <v>14399</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -3296,7 +3312,7 @@
         <v>21245.22</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -3328,7 +3344,7 @@
         <v>814.63</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3360,7 +3376,7 @@
         <v>-127675.8</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -3392,7 +3408,7 @@
         <v>-36654.71</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -3424,7 +3440,7 @@
         <v>-5374.79</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -3456,7 +3472,7 @@
         <v>-2710.36</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -3488,7 +3504,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -3520,7 +3536,7 @@
         <v>-1353.96</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3552,7 +3568,7 @@
         <v>-3870</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -3584,7 +3600,7 @@
         <v>-312</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -3616,7 +3632,7 @@
         <v>-24168.86</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -3648,7 +3664,7 @@
         <v>-888</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -3680,7 +3696,7 @@
         <v>-448</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -3712,7 +3728,7 @@
         <v>-420.35</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -3744,7 +3760,7 @@
         <v>-3012.9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -3776,7 +3792,7 @@
         <v>-10067.620000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -3808,7 +3824,7 @@
         <v>-1860997.11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -3840,7 +3856,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -3872,7 +3888,7 @@
         <v>-2477.15</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -3904,7 +3920,7 @@
         <v>-13139.39</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -3936,7 +3952,7 @@
         <v>-1750</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -3968,7 +3984,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -4000,7 +4016,7 @@
         <v>-31.5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>2</v>
       </c>
@@ -4032,7 +4048,7 @@
         <v>-58135.19</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -4064,7 +4080,7 @@
         <v>-2959.33</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -4096,7 +4112,7 @@
         <v>-12611.11</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -4128,7 +4144,7 @@
         <v>-227613.28</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -4160,7 +4176,7 @@
         <v>-183241.04</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -4192,7 +4208,7 @@
         <v>-274720.92</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -4224,7 +4240,7 @@
         <v>-3659.18</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -4256,7 +4272,7 @@
         <v>-9531.01</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -4288,7 +4304,7 @@
         <v>-3.85</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -4320,7 +4336,7 @@
         <v>1046.02</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -4352,7 +4368,7 @@
         <v>-2490215.25</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -4384,7 +4400,7 @@
         <v>-45049.47</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -4416,7 +4432,7 @@
         <v>8093964.1600000001</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -4448,7 +4464,7 @@
         <v>458208.11</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -4480,7 +4496,7 @@
         <v>5526</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -4512,7 +4528,7 @@
         <v>14803.86</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -4544,7 +4560,7 @@
         <v>83945.63</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -4576,7 +4592,7 @@
         <v>10841.47</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -4608,7 +4624,7 @@
         <v>16140.5</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -4640,7 +4656,7 @@
         <v>31.94</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -4672,7 +4688,7 @@
         <v>-1074.5999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -4704,7 +4720,7 @@
         <v>-1801841.41</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -4736,7 +4752,7 @@
         <v>-759568.98</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -4768,7 +4784,7 @@
         <v>-2919.81</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -4800,7 +4816,7 @@
         <v>-11512</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -4832,7 +4848,7 @@
         <v>-34873.39</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -4864,7 +4880,7 @@
         <v>-179394.8</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -4896,7 +4912,7 @@
         <v>174131.46</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -4928,7 +4944,7 @@
         <v>499824.36</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>2</v>
       </c>
@@ -4960,7 +4976,7 @@
         <v>40.98</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -4992,7 +5008,7 @@
         <v>205.01</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -5024,7 +5040,7 @@
         <v>-40.98</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -5056,7 +5072,7 @@
         <v>-171.19</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -5088,7 +5104,7 @@
         <v>1833098.26</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -5120,7 +5136,7 @@
         <v>6925.56</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -5152,7 +5168,7 @@
         <v>14785.25</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -5184,7 +5200,7 @@
         <v>242817.5</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -5216,7 +5232,7 @@
         <v>484.23</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -5248,7 +5264,7 @@
         <v>159714.95000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -5280,7 +5296,7 @@
         <v>64000.91</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -5312,7 +5328,7 @@
         <v>2281.08</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -5344,7 +5360,7 @@
         <v>10450.18</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -5376,7 +5392,7 @@
         <v>-17358.060000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -5408,7 +5424,7 @@
         <v>-20503.02</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -5440,7 +5456,7 @@
         <v>-2281.08</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -5472,7 +5488,7 @@
         <v>-14253.92</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -5504,7 +5520,7 @@
         <v>1114974.3899999999</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -5536,7 +5552,7 @@
         <v>877.71</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -5568,7 +5584,7 @@
         <v>74033.210000000006</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -5600,7 +5616,7 @@
         <v>97803.39</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -5632,7 +5648,7 @@
         <v>-1015.63</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -5664,7 +5680,7 @@
         <v>1539.21</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -5696,7 +5712,7 @@
         <v>155000.9</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -5728,7 +5744,7 @@
         <v>947321.98</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -5760,7 +5776,7 @@
         <v>234.29</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -5792,7 +5808,7 @@
         <v>23711.94</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -5824,7 +5840,7 @@
         <v>-234.29</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -5856,7 +5872,7 @@
         <v>450102.92</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -5888,7 +5904,7 @@
         <v>5858.37</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -5920,7 +5936,7 @@
         <v>1988.39</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>2</v>
       </c>
@@ -5952,7 +5968,7 @@
         <v>5858.37</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -5984,7 +6000,7 @@
         <v>53997.23</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -6016,7 +6032,7 @@
         <v>188516.39</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -6048,7 +6064,7 @@
         <v>221664.92</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -6080,7 +6096,7 @@
         <v>67858.53</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -6112,7 +6128,7 @@
         <v>76434.649999999994</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -6144,7 +6160,7 @@
         <v>989553.01</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -6176,7 +6192,7 @@
         <v>1663644.37</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -6208,7 +6224,7 @@
         <v>2622769.48</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -6240,7 +6256,7 @@
         <v>309782.43</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -6272,7 +6288,7 @@
         <v>122.68</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -6304,7 +6320,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -6336,7 +6352,7 @@
         <v>8755.81</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>2</v>
       </c>
@@ -6368,7 +6384,7 @@
         <v>8786.56</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -6400,7 +6416,7 @@
         <v>2820.91</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -6432,7 +6448,7 @@
         <v>71508.25</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -6464,7 +6480,7 @@
         <v>-1348.94</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -6496,7 +6512,7 @@
         <v>24790.720000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -6528,7 +6544,7 @@
         <v>3040.86</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -6560,7 +6576,7 @@
         <v>744402.9</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -6592,7 +6608,7 @@
         <v>11309.74</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>2</v>
       </c>
@@ -6624,7 +6640,7 @@
         <v>-8899.4699999999993</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>2</v>
       </c>
@@ -6656,7 +6672,7 @@
         <v>1251.8</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -6688,7 +6704,7 @@
         <v>-1251.8</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -6720,7 +6736,7 @@
         <v>457600</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>2</v>
       </c>
@@ -6752,7 +6768,7 @@
         <v>6586.66</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>2</v>
       </c>
@@ -6784,7 +6800,7 @@
         <v>-2600</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>2</v>
       </c>
@@ -6816,7 +6832,7 @@
         <v>19139.55</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>2</v>
       </c>
@@ -6848,7 +6864,7 @@
         <v>692.54</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -6880,7 +6896,7 @@
         <v>26868.95</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -6912,7 +6928,7 @@
         <v>-416.57</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -6944,7 +6960,7 @@
         <v>-1427511.73</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -6976,7 +6992,7 @@
         <v>-19929.97</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -7008,7 +7024,7 @@
         <v>-1812.72</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="1">
         <v>3</v>
       </c>
@@ -7040,7 +7056,7 @@
         <v>-18972.310000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="1">
         <v>3</v>
       </c>
@@ -7072,7 +7088,7 @@
         <v>-303058.96000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="1">
         <v>3</v>
       </c>
@@ -7104,7 +7120,7 @@
         <v>-10623.59</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="1">
         <v>3</v>
       </c>
@@ -7136,7 +7152,7 @@
         <v>-5452.22</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="1">
         <v>3</v>
       </c>
@@ -7168,7 +7184,7 @@
         <v>-10060.049999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="1">
         <v>3</v>
       </c>
@@ -7200,7 +7216,7 @@
         <v>-80.540000000000006</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="1">
         <v>3</v>
       </c>
@@ -7232,7 +7248,7 @@
         <v>-3060</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="1">
         <v>3</v>
       </c>
@@ -7264,7 +7280,7 @@
         <v>-16222.23</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="1">
         <v>3</v>
       </c>
@@ -7296,7 +7312,7 @@
         <v>-1610.8</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="1">
         <v>3</v>
       </c>
@@ -7328,7 +7344,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="1">
         <v>3</v>
       </c>
@@ -7360,7 +7376,7 @@
         <v>-1275</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="1">
         <v>3</v>
       </c>
@@ -7392,7 +7408,7 @@
         <v>-610.78</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="1">
         <v>3</v>
       </c>
@@ -7424,7 +7440,7 @@
         <v>-667159.54</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="1">
         <v>3</v>
       </c>
@@ -7456,7 +7472,7 @@
         <v>-338.32</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="1">
         <v>3</v>
       </c>
@@ -7488,7 +7504,7 @@
         <v>-1046.0999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="1">
         <v>3</v>
       </c>
@@ -7520,7 +7536,7 @@
         <v>-98.27</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="1">
         <v>3</v>
       </c>
@@ -7552,7 +7568,7 @@
         <v>-2040</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="1">
         <v>3</v>
       </c>
@@ -7584,7 +7600,7 @@
         <v>-5458.3</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="1">
         <v>3</v>
       </c>
@@ -7616,7 +7632,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="1">
         <v>3</v>
       </c>
@@ -7648,7 +7664,7 @@
         <v>-67866.3</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="1">
         <v>3</v>
       </c>
@@ -7680,7 +7696,7 @@
         <v>-29536.55</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="1">
         <v>3</v>
       </c>
@@ -7712,7 +7728,7 @@
         <v>-94787.02</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="1">
         <v>3</v>
       </c>
@@ -7744,7 +7760,7 @@
         <v>-3340.04</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="1">
         <v>3</v>
       </c>
@@ -7776,7 +7792,7 @@
         <v>-1.95</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="1">
         <v>3</v>
       </c>
@@ -7808,7 +7824,7 @@
         <v>-1586150.04</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="1">
         <v>3</v>
       </c>
@@ -7840,7 +7856,7 @@
         <v>-22035.5</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="1">
         <v>3</v>
       </c>
@@ -7872,7 +7888,7 @@
         <v>5535898.8399999999</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="1">
         <v>3</v>
       </c>
@@ -7904,7 +7920,7 @@
         <v>179.61</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="1">
         <v>3</v>
       </c>
@@ -7936,7 +7952,7 @@
         <v>13291.14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="1">
         <v>3</v>
       </c>
@@ -7968,7 +7984,7 @@
         <v>120160.47</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="1">
         <v>3</v>
       </c>
@@ -8000,7 +8016,7 @@
         <v>357.32</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="1">
         <v>3</v>
       </c>
@@ -8032,7 +8048,7 @@
         <v>-304089.46999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="1">
         <v>3</v>
       </c>
@@ -8064,7 +8080,7 @@
         <v>-302961.78000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="1">
         <v>3</v>
       </c>
@@ -8096,7 +8112,7 @@
         <v>-1261.08</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="1">
         <v>3</v>
       </c>
@@ -8128,7 +8144,7 @@
         <v>-8127.9</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="1">
         <v>3</v>
       </c>
@@ -8160,7 +8176,7 @@
         <v>-30546.87</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="1">
         <v>3</v>
       </c>
@@ -8192,7 +8208,7 @@
         <v>-62708.26</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="1">
         <v>3</v>
       </c>
@@ -8224,7 +8240,7 @@
         <v>61624.14</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="1">
         <v>3</v>
       </c>
@@ -8256,7 +8272,7 @@
         <v>381092.3</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="1">
         <v>3</v>
       </c>
@@ -8288,7 +8304,7 @@
         <v>323278.27</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="1">
         <v>3</v>
       </c>
@@ -8320,7 +8336,7 @@
         <v>1186.7</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="1">
         <v>3</v>
       </c>
@@ -8352,7 +8368,7 @@
         <v>11063.07</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="1">
         <v>3</v>
       </c>
@@ -8384,7 +8400,7 @@
         <v>166075.65</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="1">
         <v>3</v>
       </c>
@@ -8416,7 +8432,7 @@
         <v>3604.79</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="1">
         <v>3</v>
       </c>
@@ -8448,7 +8464,7 @@
         <v>112449.02</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -8480,7 +8496,7 @@
         <v>10222.36</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="1">
         <v>3</v>
       </c>
@@ -8512,7 +8528,7 @@
         <v>-1486.97</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="1">
         <v>3</v>
       </c>
@@ -8544,7 +8560,7 @@
         <v>-6370.53</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="1">
         <v>3</v>
       </c>
@@ -8576,7 +8592,7 @@
         <v>734582.38</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="1">
         <v>3</v>
       </c>
@@ -8608,7 +8624,7 @@
         <v>2862.52</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="1">
         <v>3</v>
       </c>
@@ -8640,7 +8656,7 @@
         <v>16819.490000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="1">
         <v>3</v>
       </c>
@@ -8672,7 +8688,7 @@
         <v>19695.75</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="1">
         <v>3</v>
       </c>
@@ -8704,7 +8720,7 @@
         <v>339370.39</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="1">
         <v>3</v>
       </c>
@@ -8736,7 +8752,7 @@
         <v>56609.16</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="1">
         <v>3</v>
       </c>
@@ -8768,7 +8784,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="1">
         <v>3</v>
       </c>
@@ -8800,7 +8816,7 @@
         <v>635891.71</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="1">
         <v>3</v>
       </c>
@@ -8832,7 +8848,7 @@
         <v>14902.56</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="1">
         <v>3</v>
       </c>
@@ -8864,7 +8880,7 @@
         <v>-694.26</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="1">
         <v>3</v>
       </c>
@@ -8896,7 +8912,7 @@
         <v>105832.21</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="1">
         <v>3</v>
       </c>
@@ -8928,7 +8944,7 @@
         <v>4420.5200000000004</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="1">
         <v>3</v>
       </c>
@@ -8960,7 +8976,7 @@
         <v>-2697.88</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="1">
         <v>3</v>
       </c>
@@ -8992,7 +9008,7 @@
         <v>30405.08</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="1">
         <v>3</v>
       </c>
@@ -9024,7 +9040,7 @@
         <v>458878.5</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="1">
         <v>3</v>
       </c>
@@ -9056,7 +9072,7 @@
         <v>58866.31</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241" s="1">
         <v>3</v>
       </c>
@@ -9088,7 +9104,7 @@
         <v>-1019.73</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10">
       <c r="A242" s="1">
         <v>3</v>
       </c>
@@ -9120,7 +9136,7 @@
         <v>452400</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243" s="1">
         <v>3</v>
       </c>
@@ -9152,7 +9168,7 @@
         <v>52693.279999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10">
       <c r="A244" s="1">
         <v>3</v>
       </c>
@@ -9184,7 +9200,7 @@
         <v>20223.650000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245" s="1">
         <v>3</v>
       </c>
@@ -9216,7 +9232,7 @@
         <v>5494.61</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10">
       <c r="A246" s="1">
         <v>3</v>
       </c>
@@ -9248,7 +9264,7 @@
         <v>2638.29</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10">
       <c r="A247" s="1">
         <v>3</v>
       </c>
@@ -9280,7 +9296,7 @@
         <v>-253532.88</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10">
       <c r="A248" s="1">
         <v>3</v>
       </c>
@@ -9312,7 +9328,7 @@
         <v>-6554.56</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249" s="1">
         <v>3</v>
       </c>
@@ -9344,7 +9360,7 @@
         <v>-15701.64</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250" s="1">
         <v>4</v>
       </c>
@@ -9376,7 +9392,7 @@
         <v>-235812.1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251" s="1">
         <v>4</v>
       </c>
@@ -9408,7 +9424,7 @@
         <v>-27179.95</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10">
       <c r="A252" s="1">
         <v>4</v>
       </c>
@@ -9440,7 +9456,7 @@
         <v>-5740.68</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10">
       <c r="A253" s="1">
         <v>4</v>
       </c>
@@ -9472,7 +9488,7 @@
         <v>-37613.53</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10">
       <c r="A254" s="1">
         <v>4</v>
       </c>
@@ -9504,7 +9520,7 @@
         <v>-4185.9799999999996</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255" s="1">
         <v>4</v>
       </c>
@@ -9536,7 +9552,7 @@
         <v>-13192.59</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256" s="1">
         <v>4</v>
       </c>
@@ -9568,7 +9584,7 @@
         <v>-1008.23</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" s="1">
         <v>4</v>
       </c>
@@ -9600,7 +9616,7 @@
         <v>-3120</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" s="1">
         <v>4</v>
       </c>
@@ -9632,7 +9648,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" s="1">
         <v>4</v>
       </c>
@@ -9664,7 +9680,7 @@
         <v>-1560</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260" s="1">
         <v>4</v>
       </c>
@@ -9696,7 +9712,7 @@
         <v>-46631.33</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10">
       <c r="A261" s="1">
         <v>4</v>
       </c>
@@ -9728,7 +9744,7 @@
         <v>-812</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10">
       <c r="A262" s="1">
         <v>4</v>
       </c>
@@ -9760,7 +9776,7 @@
         <v>-780.65</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263" s="1">
         <v>4</v>
       </c>
@@ -9792,7 +9808,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264" s="1">
         <v>4</v>
       </c>
@@ -9824,7 +9840,7 @@
         <v>-34567.199999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265" s="1">
         <v>4</v>
       </c>
@@ -9856,7 +9872,7 @@
         <v>-3574115.67</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" s="1">
         <v>4</v>
       </c>
@@ -9888,7 +9904,7 @@
         <v>-146.47</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10">
       <c r="A267" s="1">
         <v>4</v>
       </c>
@@ -9920,7 +9936,7 @@
         <v>-2715.43</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10">
       <c r="A268" s="1">
         <v>4</v>
       </c>
@@ -9952,7 +9968,7 @@
         <v>-849.81</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269" s="1">
         <v>4</v>
       </c>
@@ -9984,7 +10000,7 @@
         <v>-5836.67</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270" s="1">
         <v>4</v>
       </c>
@@ -10016,7 +10032,7 @@
         <v>-41647.360000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10">
       <c r="A271" s="1">
         <v>4</v>
       </c>
@@ -10048,7 +10064,7 @@
         <v>-5944.28</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272" s="1">
         <v>4</v>
       </c>
@@ -10080,7 +10096,7 @@
         <v>-6332.97</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10">
       <c r="A273" s="1">
         <v>4</v>
       </c>
@@ -10112,7 +10128,7 @@
         <v>-30123.03</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10">
       <c r="A274" s="1">
         <v>4</v>
       </c>
@@ -10144,7 +10160,7 @@
         <v>-3920</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10">
       <c r="A275" s="1">
         <v>4</v>
       </c>
@@ -10176,7 +10192,7 @@
         <v>-52689.49</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10">
       <c r="A276" s="1">
         <v>4</v>
       </c>
@@ -10208,7 +10224,7 @@
         <v>-7542.81</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10">
       <c r="A277" s="1">
         <v>4</v>
       </c>
@@ -10240,7 +10256,7 @@
         <v>-13774.46</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10">
       <c r="A278" s="1">
         <v>4</v>
       </c>
@@ -10272,7 +10288,7 @@
         <v>-303544.69</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10">
       <c r="A279" s="1">
         <v>4</v>
       </c>
@@ -10304,7 +10320,7 @@
         <v>-461906.14</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10">
       <c r="A280" s="1">
         <v>4</v>
       </c>
@@ -10336,7 +10352,7 @@
         <v>-381.15</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10">
       <c r="A281" s="1">
         <v>4</v>
       </c>
@@ -10368,7 +10384,7 @@
         <v>-553222.62</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10">
       <c r="A282" s="1">
         <v>4</v>
       </c>
@@ -10400,7 +10416,7 @@
         <v>-28822.57</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10">
       <c r="A283" s="1">
         <v>4</v>
       </c>
@@ -10432,7 +10448,7 @@
         <v>-25765.02</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10">
       <c r="A284" s="1">
         <v>4</v>
       </c>
@@ -10464,7 +10480,7 @@
         <v>-5699.04</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10">
       <c r="A285" s="1">
         <v>4</v>
       </c>
@@ -10496,7 +10512,7 @@
         <v>-3105.14</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10">
       <c r="A286" s="1">
         <v>4</v>
       </c>
@@ -10528,7 +10544,7 @@
         <v>-3105.14</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10">
       <c r="A287" s="1">
         <v>4</v>
       </c>
@@ -10560,7 +10576,7 @@
         <v>131750.6</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10">
       <c r="A288" s="1">
         <v>4</v>
       </c>
@@ -10592,7 +10608,7 @@
         <v>5934.65</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289" s="1">
         <v>4</v>
       </c>
@@ -10624,7 +10640,7 @@
         <v>-2746594.98</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290" s="1">
         <v>4</v>
       </c>
@@ -10656,7 +10672,7 @@
         <v>-10461.370000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291" s="1">
         <v>4</v>
       </c>
@@ -10688,7 +10704,7 @@
         <v>-289921.91999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292" s="1">
         <v>4</v>
       </c>
@@ -10720,7 +10736,7 @@
         <v>195793.89</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293" s="1">
         <v>4</v>
       </c>
@@ -10752,7 +10768,7 @@
         <v>13717008.4</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10">
       <c r="A294" s="1">
         <v>4</v>
       </c>
@@ -10784,7 +10800,7 @@
         <v>330579.36</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" s="1">
         <v>4</v>
       </c>
@@ -10816,7 +10832,7 @@
         <v>73843.17</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10">
       <c r="A296" s="1">
         <v>4</v>
       </c>
@@ -10848,7 +10864,7 @@
         <v>-5584.54</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="A297" s="1">
         <v>4</v>
       </c>
@@ -10880,7 +10896,7 @@
         <v>-4973908.4400000004</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="A298" s="1">
         <v>4</v>
       </c>
@@ -10912,7 +10928,7 @@
         <v>-15089.67</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="A299" s="1">
         <v>4</v>
       </c>
@@ -10944,7 +10960,7 @@
         <v>-1146.26</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10">
       <c r="A300" s="1">
         <v>4</v>
       </c>
@@ -10976,7 +10992,7 @@
         <v>43901.08</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10">
       <c r="A301" s="1">
         <v>4</v>
       </c>
@@ -11008,7 +11024,7 @@
         <v>33715.870000000003</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" s="1">
         <v>4</v>
       </c>
@@ -11040,7 +11056,7 @@
         <v>1165299.7</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="A303" s="1">
         <v>4</v>
       </c>
@@ -11072,7 +11088,7 @@
         <v>2603822.2000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="A304" s="1">
         <v>4</v>
       </c>
@@ -11104,7 +11120,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="A305" s="1">
         <v>4</v>
       </c>
@@ -11136,7 +11152,7 @@
         <v>411508.5</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" s="1">
         <v>4</v>
       </c>
@@ -11168,7 +11184,7 @@
         <v>15163.44</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" s="1">
         <v>4</v>
       </c>
@@ -11200,7 +11216,7 @@
         <v>29.27</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" s="1">
         <v>4</v>
       </c>
@@ -11232,7 +11248,7 @@
         <v>28661.759999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" s="1">
         <v>4</v>
       </c>
@@ -11264,7 +11280,7 @@
         <v>2164333.7799999998</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="1">
         <v>4</v>
       </c>
@@ -11296,7 +11312,7 @@
         <v>-306649.23</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="A311" s="1">
         <v>4</v>
       </c>
@@ -11328,7 +11344,7 @@
         <v>142323.74</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="A312" s="1">
         <v>4</v>
       </c>
@@ -11360,7 +11376,7 @@
         <v>694906.44</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="A313" s="1">
         <v>4</v>
       </c>
@@ -11392,7 +11408,7 @@
         <v>177888.09</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="A314" s="1">
         <v>4</v>
       </c>
@@ -11424,7 +11440,7 @@
         <v>194.37</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="A315" s="1">
         <v>4</v>
       </c>
@@ -11456,7 +11472,7 @@
         <v>3500.88</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="A316" s="1">
         <v>4</v>
       </c>
@@ -11488,7 +11504,7 @@
         <v>4026800.71</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="A317" s="1">
         <v>4</v>
       </c>
@@ -11520,7 +11536,7 @@
         <v>3645.32</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" s="1">
         <v>4</v>
       </c>
@@ -11552,7 +11568,7 @@
         <v>136875.74</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10">
       <c r="A319" s="1">
         <v>4</v>
       </c>
@@ -11584,7 +11600,7 @@
         <v>1872.32</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" s="1">
         <v>4</v>
       </c>
@@ -11616,7 +11632,7 @@
         <v>-2167422.9500000002</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10">
       <c r="A321" s="1">
         <v>4</v>
       </c>
@@ -11648,7 +11664,7 @@
         <v>-218482.54</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10">
       <c r="A322" s="1">
         <v>5</v>
       </c>
@@ -11680,7 +11696,7 @@
         <v>-3111.61</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10">
       <c r="A323" s="1">
         <v>5</v>
       </c>
@@ -11712,7 +11728,7 @@
         <v>-3111.61</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10">
       <c r="A324" s="1">
         <v>5</v>
       </c>
@@ -11744,7 +11760,7 @@
         <v>-3770.29</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10">
       <c r="A325" s="1">
         <v>5</v>
       </c>
@@ -11776,7 +11792,7 @@
         <v>-3700.27</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10">
       <c r="A326" s="1">
         <v>5</v>
       </c>
@@ -11808,7 +11824,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10">
       <c r="A327" s="1">
         <v>5</v>
       </c>
@@ -11840,7 +11856,7 @@
         <v>-510</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10">
       <c r="A328" s="1">
         <v>5</v>
       </c>
@@ -11872,7 +11888,7 @@
         <v>-447224.28</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10">
       <c r="A329" s="1">
         <v>5</v>
       </c>
@@ -11904,7 +11920,7 @@
         <v>-2415.08</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10">
       <c r="A330" s="1">
         <v>5</v>
       </c>
@@ -11936,7 +11952,7 @@
         <v>-117.35</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10">
       <c r="A331" s="1">
         <v>5</v>
       </c>
@@ -11968,7 +11984,7 @@
         <v>-428.33</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10">
       <c r="A332" s="1">
         <v>5</v>
       </c>
@@ -12000,7 +12016,7 @@
         <v>-12316.43</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10">
       <c r="A333" s="1">
         <v>5</v>
       </c>
@@ -12032,7 +12048,7 @@
         <v>-687.51</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10">
       <c r="A334" s="1">
         <v>5</v>
       </c>
@@ -12064,7 +12080,7 @@
         <v>-1034</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10">
       <c r="A335" s="1">
         <v>5</v>
       </c>
@@ -12096,7 +12112,7 @@
         <v>-56217.32</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10">
       <c r="A336" s="1">
         <v>5</v>
       </c>
@@ -12128,7 +12144,7 @@
         <v>-113877.51</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10">
       <c r="A337" s="1">
         <v>5</v>
       </c>
@@ -12160,7 +12176,7 @@
         <v>-112781.79</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10">
       <c r="A338" s="1">
         <v>5</v>
       </c>
@@ -12192,7 +12208,7 @@
         <v>-6289</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10">
       <c r="A339" s="1">
         <v>5</v>
       </c>
@@ -12224,7 +12240,7 @@
         <v>49229.75</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10">
       <c r="A340" s="1">
         <v>5</v>
       </c>
@@ -12256,7 +12272,7 @@
         <v>711.85</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10">
       <c r="A341" s="1">
         <v>5</v>
       </c>
@@ -12288,7 +12304,7 @@
         <v>-487094.24</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10">
       <c r="A342" s="1">
         <v>5</v>
       </c>
@@ -12320,7 +12336,7 @@
         <v>-32557.41</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10">
       <c r="A343" s="1">
         <v>5</v>
       </c>
@@ -12352,7 +12368,7 @@
         <v>163530.32</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10">
       <c r="A344" s="1">
         <v>5</v>
       </c>
@@ -12384,7 +12400,7 @@
         <v>1809385.65</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10">
       <c r="A345" s="1">
         <v>5</v>
       </c>
@@ -12416,7 +12432,7 @@
         <v>492619.45</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10">
       <c r="A346" s="1">
         <v>5</v>
       </c>
@@ -12448,7 +12464,7 @@
         <v>721489.19</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10">
       <c r="A347" s="1">
         <v>5</v>
       </c>
@@ -12480,7 +12496,7 @@
         <v>207135.17</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10">
       <c r="A348" s="1">
         <v>5</v>
       </c>
@@ -12512,7 +12528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10">
       <c r="A349" s="1">
         <v>5</v>
       </c>
@@ -12544,7 +12560,7 @@
         <v>48493.96</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10">
       <c r="A350" s="1">
         <v>5</v>
       </c>
@@ -12576,7 +12592,7 @@
         <v>4855.08</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10">
       <c r="A351" s="1">
         <v>5</v>
       </c>
@@ -12608,7 +12624,7 @@
         <v>-8618.24</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10">
       <c r="A352" s="1">
         <v>5</v>
       </c>
@@ -12640,7 +12656,7 @@
         <v>-643829.18000000005</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10">
       <c r="A353" s="1">
         <v>5</v>
       </c>
@@ -12672,7 +12688,7 @@
         <v>-1546.12</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10">
       <c r="A354" s="1">
         <v>5</v>
       </c>
@@ -12704,7 +12720,7 @@
         <v>-1267.32</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10">
       <c r="A355" s="1">
         <v>5</v>
       </c>
@@ -12736,7 +12752,7 @@
         <v>242357.69</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10">
       <c r="A356" s="1">
         <v>5</v>
       </c>
@@ -12768,7 +12784,7 @@
         <v>-35372.449999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10">
       <c r="A357" s="1">
         <v>5</v>
       </c>
@@ -12800,7 +12816,7 @@
         <v>6915.6</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10">
       <c r="A358" s="1">
         <v>5</v>
       </c>
@@ -12832,7 +12848,7 @@
         <v>123935.41</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10">
       <c r="A359" s="1">
         <v>5</v>
       </c>
@@ -12864,7 +12880,7 @@
         <v>4856.01</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10">
       <c r="A360" s="1">
         <v>5</v>
       </c>
@@ -12896,7 +12912,7 @@
         <v>291.87</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10">
       <c r="A361" s="1">
         <v>5</v>
       </c>
@@ -12928,7 +12944,7 @@
         <v>21644.54</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10">
       <c r="A362" s="1">
         <v>5</v>
       </c>
@@ -12960,7 +12976,7 @@
         <v>1676.41</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -12992,7 +13008,7 @@
         <v>146605.01999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10">
       <c r="A364" s="1">
         <v>5</v>
       </c>
@@ -13024,7 +13040,7 @@
         <v>27904.19</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10">
       <c r="A365" s="1">
         <v>5</v>
       </c>
@@ -13056,7 +13072,7 @@
         <v>4662.54</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -13088,7 +13104,7 @@
         <v>39554.79</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10">
       <c r="A367" s="1">
         <v>5</v>
       </c>
@@ -13120,7 +13136,7 @@
         <v>5831.78</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10">
       <c r="A368" s="1">
         <v>5</v>
       </c>
@@ -13152,7 +13168,7 @@
         <v>776.42</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10">
       <c r="A369" s="1">
         <v>5</v>
       </c>
@@ -13184,7 +13200,7 @@
         <v>8426.4500000000007</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10">
       <c r="A370" s="1">
         <v>5</v>
       </c>
@@ -13216,7 +13232,7 @@
         <v>1872.37</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10">
       <c r="A371" s="1">
         <v>5</v>
       </c>
@@ -13248,7 +13264,7 @@
         <v>-371255.01</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10">
       <c r="A372" s="1">
         <v>5</v>
       </c>
@@ -13280,7 +13296,7 @@
         <v>-23525.03</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10">
       <c r="A373" s="1">
         <v>5</v>
       </c>
@@ -13321,8 +13337,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ACA85EEB1003B445BFA9C09079EFAE82" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="eb97596f71ecfeb37339be6e78dce8ed">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f1ce42f-c57e-4699-9768-bf8c2a029303" xmlns:ns3="a6d483d6-7cde-454f-9700-1dca77a67851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e8fd35debae46a1d834882f4a276840" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ACA85EEB1003B445BFA9C09079EFAE82" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c280cec6198b6a832b644a1692ca65ae">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f1ce42f-c57e-4699-9768-bf8c2a029303" xmlns:ns3="a6d483d6-7cde-454f-9700-1dca77a67851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a3b96e184ca141cd196230185d4c400" ns2:_="" ns3:_="">
     <xsd:import namespace="5f1ce42f-c57e-4699-9768-bf8c2a029303"/>
     <xsd:import namespace="a6d483d6-7cde-454f-9700-1dca77a67851"/>
     <xsd:element name="properties">
@@ -13407,7 +13432,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="50763be7-2c5e-4ee0-a9d0-09b2389b878d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="50763be7-2c5e-4ee0-a9d0-09b2389b878d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -13438,7 +13463,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a6d483d6-7cde-454f-9700-1dca77a67851" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -13457,7 +13482,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -13485,8 +13510,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -13575,15 +13600,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13597,11 +13613,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AC01247-F10D-4DC5-BF45-DE7AB60582C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFDC787-133B-4FB2-889F-2E318DCD90F6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFDC787-133B-4FB2-889F-2E318DCD90F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE174506-3B5F-468D-AB2B-8F3B351E29EE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
